--- a/app/uploads/Salaries.xlsx
+++ b/app/uploads/Salaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00C447B-1295-4E20-8F12-7AC3BE75A07F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7C06F-6C91-48F9-870C-17F20DD7A48F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{35125F56-BC39-47E6-BB89-AF5845236E4C}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340A0859-69F9-48DF-9E07-95C07E96AD32}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,14 +420,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C2">
         <v>2000</v>
       </c>
     </row>
